--- a/Evaluaciones CADA 2022-2/TercerCurso.xlsx
+++ b/Evaluaciones CADA 2022-2/TercerCurso.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Documents\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\systems\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE355A20-19C9-40B8-9619-D799AE0B6A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo de clase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Colegio Adventista de Asunción</t>
   </si>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -222,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -231,20 +230,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,142 +597,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="5" t="s">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="9" t="s">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="6" t="s">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="9"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="6"/>
     </row>
     <row r="8" spans="1:33" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -761,7 +761,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="5"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="7" t="s">
         <v>13</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="9"/>
+      <c r="AG8" s="6"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -3297,12 +3297,36 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36" t="s">
-        <v>15</v>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="W36" t="s">
         <v>15</v>
@@ -3520,6 +3544,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="AG6:AG8"/>
     <mergeCell ref="M8:U8"/>
     <mergeCell ref="W8:AF8"/>
@@ -3528,21 +3562,11 @@
     <mergeCell ref="V6:V8"/>
     <mergeCell ref="W7:AF7"/>
     <mergeCell ref="W6:AF6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A11:B11 C1:E5 H11 H8 A1:B6 W6 A8:B8 A7 M6 M10:M11 W18 W27 W36 A10 A18:B18 A12 A13 A14 A15 A16 A17 A24:B24 A19 A20 A21 A22 A23 A27:B27 A25 A26 A31 A28 A29 A30 A38 A32 A33 A34 A35 A36 A37 M8 W8 H18 H27 M14 M18 M24 M36 M27" numberStoredAsText="1"/>
+    <ignoredError sqref="A11:B11 C1:E5 H11 H8 A1:B6 W6 A8:B8 A7 M6 M10:M11 W18 W27 W36 A10 A18:B18 A12 A13 A14 A15 A16 A17 A24:B24 A19 A20 A21 A22 A23 A27:B27 A25 A26 A31 A28 A29 A30 A38 A32 A33 A34 A35 A36 A37 M8 W8 H18 H27 M14 M18 M24 M27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Evaluaciones CADA 2022-2/TercerCurso.xlsx
+++ b/Evaluaciones CADA 2022-2/TercerCurso.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\systems\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Systems\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA3CDB-D920-4ABD-8CA4-9018697615E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo de clase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Colegio Adventista de Asunción</t>
   </si>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -232,19 +233,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,184 +598,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="6" t="s">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="8" t="s">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="6"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="7" t="s">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="6"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="9"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -2145,8 +2146,23 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2163,12 +2179,36 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>15</v>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -3544,16 +3584,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:L8"/>
     <mergeCell ref="AG6:AG8"/>
     <mergeCell ref="M8:U8"/>
     <mergeCell ref="W8:AF8"/>
@@ -3562,11 +3592,21 @@
     <mergeCell ref="V6:V8"/>
     <mergeCell ref="W7:AF7"/>
     <mergeCell ref="W6:AF6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A11:B11 C1:E5 H11 H8 A1:B6 W6 A8:B8 A7 M6 M10:M11 W18 W27 W36 A10 A18:B18 A12 A13 A14 A15 A16 A17 A24:B24 A19 A20 A21 A22 A23 A27:B27 A25 A26 A31 A28 A29 A30 A38 A32 A33 A34 A35 A36 A37 M8 W8 H18 H27 M14 M18 M24 M27" numberStoredAsText="1"/>
+    <ignoredError sqref="A11:B11 C1:E5 H11 H8 A1:B6 W6 A8:B8 A7 M6 M10:M11 W18 W27 W36 A10 A18:B18 A12 A13 A14 A15 A16 A17 A24 A19 A20 A21 A22 A23 A27:B27 A25 A26 A31 A28 A29 A30 A38 A32 A33 A34 A35 A36 A37 M8 W8 H18 H27 M14 M18 M27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>